--- a/TET4565/01_Hybrid_model/data/PV_spec.xlsx
+++ b/TET4565/01_Hybrid_model/data/PV_spec.xlsx
@@ -54,13 +54,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -104,10 +110,10 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -442,7 +448,7 @@
     <col min="10" max="10" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -500,9 +506,9 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="5">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="B4" s="6">
         <v>39.5</v>
@@ -520,7 +526,7 @@
         <v>0.167</v>
       </c>
       <c r="G4" s="5">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="H4" s="6">
         <v>1.7</v>
